--- a/biology/Médecine/Article_99/Article_99.xlsx
+++ b/biology/Médecine/Article_99/Article_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Article 99 est un film américain réalisé par Howard Deutch, sorti en 1992.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un hôpital pour anciens combattants sévèrement sous-financé, un groupe de médecins se rebelle contre la bureaucratie qu'emploie l'administration de l'établissement en faisant ce qu'ils peuvent pour assurer les soins appropriés pour les patients.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français et original : Article 99
 Réalisation : Howard Deutch
@@ -595,7 +611,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ray Liotta (V. F. : Philippe Peythieu) : Dr Richard Sturgess
 Kiefer Sutherland (V. F. : Patrick Poivey) : Dr Peter Morgan
@@ -639,10 +657,12 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Rotten Tomatoes : 46 %[1]
-Internet Movie Database : 5,9/10 (pour 1.942 votes)[2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Rotten Tomatoes : 46 %
+Internet Movie Database : 5,9/10 (pour 1.942 votes)
 (en) Critique de Roger Ebert pour le Chicago Sun-Times
 (en) Critique de Hal Hinson pour le Washington Post
 (en) Critique de Desson Howe pour le Washington Post</t>
@@ -673,9 +693,11 @@
           <t>Box-office</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> États-Unis : 6 375 979 $[3]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis : 6 375 979 $</t>
         </is>
       </c>
     </row>
@@ -703,9 +725,11 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Composée par Danny Elfman[4]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Composée par Danny Elfman
 Main Title (4:00)
 Death (4:23)
 Mayday (2:47)
